--- a/excel/import invoice2.xlsx
+++ b/excel/import invoice2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC38C2E-893A-2C42-9DA8-345FC2AB62B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07250964-3238-4241-8FD9-D2190020E525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{329E2B7B-EBAD-E649-85EA-0820AD4453A7}"/>
   </bookViews>
@@ -24,74 +24,244 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>anita.k</author>
+  </authors>
+  <commentList>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{3492E398-9CB1-8647-82DD-94554D91E24F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>anita.k:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+only HIB</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Invoice Date</t>
-  </si>
-  <si>
-    <t>Buppin Number</t>
-  </si>
-  <si>
-    <t>Qty Invoice</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>Price Invoice (@1000)</t>
-  </si>
-  <si>
-    <t>JL01-8229</t>
-  </si>
-  <si>
-    <t>7189-8974-30</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="64">
   <si>
     <t>HIB</t>
   </si>
   <si>
-    <t>CONNECTOR</t>
-  </si>
-  <si>
-    <t>JL01-8230</t>
-  </si>
-  <si>
     <t>7287-7598-30</t>
   </si>
   <si>
-    <t>JL01-8231</t>
-  </si>
-  <si>
-    <t>7288-4105</t>
-  </si>
-  <si>
-    <t>JL01-8232</t>
-  </si>
-  <si>
-    <t>JL01-8021</t>
-  </si>
-  <si>
-    <t>7047-3891</t>
-  </si>
-  <si>
-    <t>PP CLIP</t>
+    <t>LineNumber</t>
+  </si>
+  <si>
+    <t>ShipmentNumber</t>
+  </si>
+  <si>
+    <t>ContainerNumber</t>
+  </si>
+  <si>
+    <t>ContainerType</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>HSCode</t>
+  </si>
+  <si>
+    <t>PackingQty</t>
+  </si>
+  <si>
+    <t>QuantityPackage</t>
+  </si>
+  <si>
+    <t>PackageCode</t>
+  </si>
+  <si>
+    <t>QuantityUnit</t>
+  </si>
+  <si>
+    <t>UnitCode</t>
+  </si>
+  <si>
+    <t>NetWeight</t>
+  </si>
+  <si>
+    <t>GrossWeight</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>InvoiceNumber</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>InvoiceValue</t>
+  </si>
+  <si>
+    <t>CurrencyCode</t>
+  </si>
+  <si>
+    <t>PalletNumber</t>
+  </si>
+  <si>
+    <t>LotNumber</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>SupplierCode</t>
+  </si>
+  <si>
+    <t>InvoiceLineNumber</t>
+  </si>
+  <si>
+    <t>OriginCountryCode</t>
+  </si>
+  <si>
+    <t>ProductCategoryCode</t>
+  </si>
+  <si>
+    <t>InvoiceTypeCode</t>
+  </si>
+  <si>
+    <t>TariffType</t>
+  </si>
+  <si>
+    <t>Tariff</t>
+  </si>
+  <si>
+    <t>TariffFacilities</t>
+  </si>
+  <si>
+    <t>TGBU6779090</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>JL01-8388</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>NQ906K</t>
+  </si>
+  <si>
+    <t>7154-6334</t>
+  </si>
+  <si>
+    <t>NQ907M1</t>
+  </si>
+  <si>
+    <t>7171-6026</t>
+  </si>
+  <si>
+    <t>7282-4870</t>
+  </si>
+  <si>
+    <t>7282-4871</t>
+  </si>
+  <si>
+    <t>7282-4875</t>
+  </si>
+  <si>
+    <t>430CA5031</t>
+  </si>
+  <si>
+    <t>METER</t>
+  </si>
+  <si>
+    <t>7090-2970-30</t>
+  </si>
+  <si>
+    <t>7158-7583-30</t>
+  </si>
+  <si>
+    <t>NQ907M2</t>
+  </si>
+  <si>
+    <t>7282-1074-40</t>
+  </si>
+  <si>
+    <t>7327-6122</t>
+  </si>
+  <si>
+    <t>7238-3625</t>
+  </si>
+  <si>
+    <t>7047-3323-30</t>
+  </si>
+  <si>
+    <t>7052-1231-0T</t>
+  </si>
+  <si>
+    <t>NQ907M3</t>
+  </si>
+  <si>
+    <t>7247-8171-0T</t>
+  </si>
+  <si>
+    <t>7039-8770-70</t>
+  </si>
+  <si>
+    <t>NQ9071</t>
+  </si>
+  <si>
+    <t>NQ9072</t>
+  </si>
+  <si>
+    <t>NQ9073</t>
+  </si>
+  <si>
+    <t>NQ9074</t>
+  </si>
+  <si>
+    <t>NQ9075</t>
+  </si>
+  <si>
+    <t>7035-2666-30</t>
+  </si>
+  <si>
+    <t>7183-6096-30</t>
+  </si>
+  <si>
+    <t>7186-8851-30</t>
+  </si>
+  <si>
+    <t>NQ908B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,20 +271,64 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,37 +336,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8F35D640-2D15-DB4C-B281-BDC629AC6BBE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,203 +690,1484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931E9C3-C962-3846-B590-0F2E86192E67}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931E9C3-C962-3846-B590-0F2E86192E67}">
+  <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7">
+        <v>2400</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7">
+        <v>2400</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>325.7</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7">
+        <v>264</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9">
+        <v>528</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6">
+        <v>18</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="8">
+        <v>20190705</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>126.57</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7">
+        <v>60</v>
+      </c>
+      <c r="H4" s="6">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="7">
+        <v>240</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>110.48</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7">
+        <v>240</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7">
+        <v>960</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="6">
+        <v>32</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>385.2</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>232.5</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>252.32</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
-        <v>43600</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="6">
+        <v>15</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
+        <v>1300</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7">
+        <v>1300</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>297.83999999999997</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
+        <v>800</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7">
+        <v>800</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>107.71</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7">
+        <v>200</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7">
+        <v>200</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="6">
+        <v>10</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>197.39</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7">
+        <v>200</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7">
+        <v>400</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="6">
+        <v>20</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>394.78</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>461.08</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7">
+        <v>100</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7">
+        <v>100</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>23.67</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7">
+        <v>2800</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7">
+        <v>2800</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>466</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7">
+        <v>5000</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7">
+        <v>25000</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="6">
+        <v>47.5</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>2096</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7">
         <v>1000</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4">
-        <v>52.48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43592</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4000</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4">
-        <v>52.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
-        <v>43592</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4000</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4">
-        <v>52.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6">
-        <v>43592</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5000</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4">
-        <v>135.13999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="H18" s="6">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="6">
         <v>13</v>
       </c>
-      <c r="B6" s="6">
-        <v>43592</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1116</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
-        <v>299.72000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7">
-        <v>44150</v>
-      </c>
-      <c r="C7">
-        <v>7189897490</v>
-      </c>
-      <c r="D7" s="4">
-        <v>500</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4">
-        <v>299.72000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6">
-        <v>43525</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>727.14</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
         <v>17</v>
       </c>
-      <c r="D8" s="4">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>363.57</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7">
         <v>2000</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="K20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="6">
+        <v>13</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>727.14</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>363.57</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7">
+        <v>3000</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>1090.71</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7">
+        <v>100</v>
+      </c>
+      <c r="H23" s="6">
         <v>18</v>
       </c>
-      <c r="G8" s="4">
-        <v>120.37</v>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7">
+        <v>1800</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="6">
+        <v>194.4</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1446.1</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>104.82</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7">
+        <v>600</v>
+      </c>
+      <c r="H25" s="6">
+        <v>6</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7">
+        <v>3600</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="6">
+        <v>29.400000000000002</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>225.97</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7">
+        <v>264</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7">
+        <v>528</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="6">
+        <v>18</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="6">
+        <v>20190705</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>126.57</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>